--- a/Stored Procedures/WebServices/1401/04_تیر/Ahvaz_Emergency/راهنمای وب سرویس‌ لیست فیدرهای خاموش 14010425.xlsx
+++ b/Stored Procedures/WebServices/1401/04_تیر/Ahvaz_Emergency/راهنمای وب سرویس‌ لیست فیدرهای خاموش 14010425.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="25330"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="25427"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dadvar\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D8FC4D12-B08D-41DF-BBF1-7F6DF6EF3D0B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2EAF3D4F-EF49-43F2-BCD4-6F906198AF6A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -83,9 +83,6 @@
   </si>
   <si>
     <t>متن پیام</t>
-  </si>
-  <si>
-    <t>http://IPAddress/EmergencyReport</t>
   </si>
   <si>
     <t>اطلاعات بازگشتی که به شکل زیر می باشد</t>
@@ -242,6 +239,9 @@
   </si>
   <si>
     <t>لیست فیدر های خاموش، به طوری که بخشی از فیدر قطع می باشد</t>
+  </si>
+  <si>
+    <t>http://IPAddress/TzServices/EmergencyReport</t>
   </si>
 </sst>
 </file>
@@ -663,11 +663,32 @@
     <xf numFmtId="0" fontId="4" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="4" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="4" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -733,27 +754,6 @@
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="6" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1162,8 +1162,8 @@
   </sheetPr>
   <dimension ref="A1:D29"/>
   <sheetViews>
-    <sheetView rightToLeft="1" tabSelected="1" view="pageBreakPreview" topLeftCell="A11" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="C20" sqref="C20:D20"/>
+    <sheetView rightToLeft="1" tabSelected="1" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="C4" sqref="C4:D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1174,32 +1174,32 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="57" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="20" t="s">
-        <v>23</v>
-      </c>
-      <c r="B1" s="21"/>
-      <c r="C1" s="21"/>
-      <c r="D1" s="22"/>
+      <c r="A1" s="27" t="s">
+        <v>22</v>
+      </c>
+      <c r="B1" s="28"/>
+      <c r="C1" s="28"/>
+      <c r="D1" s="29"/>
     </row>
     <row r="2" spans="1:4" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="23" t="s">
+      <c r="A2" s="30" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="24"/>
-      <c r="C2" s="24"/>
-      <c r="D2" s="25"/>
+      <c r="B2" s="31"/>
+      <c r="C2" s="31"/>
+      <c r="D2" s="32"/>
     </row>
     <row r="3" spans="1:4" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="11" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B3" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="C3" s="26" t="s">
-        <v>24</v>
-      </c>
-      <c r="D3" s="27"/>
+      <c r="C3" s="33" t="s">
+        <v>23</v>
+      </c>
+      <c r="D3" s="34"/>
     </row>
     <row r="4" spans="1:4" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="13" t="s">
@@ -1208,10 +1208,10 @@
       <c r="B4" s="14" t="s">
         <v>6</v>
       </c>
-      <c r="C4" s="28" t="s">
-        <v>20</v>
-      </c>
-      <c r="D4" s="29"/>
+      <c r="C4" s="35" t="s">
+        <v>52</v>
+      </c>
+      <c r="D4" s="36"/>
     </row>
     <row r="5" spans="1:4" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="4" t="s">
@@ -1228,34 +1228,34 @@
       </c>
     </row>
     <row r="6" spans="1:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="30" t="s">
+      <c r="A6" s="37" t="s">
         <v>10</v>
       </c>
-      <c r="B6" s="31"/>
-      <c r="C6" s="31"/>
-      <c r="D6" s="32"/>
+      <c r="B6" s="38"/>
+      <c r="C6" s="38"/>
+      <c r="D6" s="39"/>
     </row>
     <row r="7" spans="1:4" s="8" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="B7" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="B7" s="2" t="s">
+      <c r="C7" s="9" t="s">
         <v>27</v>
-      </c>
-      <c r="C7" s="9" t="s">
-        <v>28</v>
       </c>
       <c r="D7" s="6" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="33" t="s">
+      <c r="A8" s="40" t="s">
         <v>13</v>
       </c>
-      <c r="B8" s="34"/>
-      <c r="C8" s="34"/>
-      <c r="D8" s="35"/>
+      <c r="B8" s="41"/>
+      <c r="C8" s="41"/>
+      <c r="D8" s="42"/>
     </row>
     <row r="9" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
@@ -1264,10 +1264,10 @@
       <c r="B9" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="C9" s="36" t="s">
+      <c r="C9" s="43" t="s">
         <v>19</v>
       </c>
-      <c r="D9" s="37"/>
+      <c r="D9" s="44"/>
     </row>
     <row r="10" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
@@ -1276,250 +1276,237 @@
       <c r="B10" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="C10" s="36" t="s">
+      <c r="C10" s="43" t="s">
         <v>14</v>
       </c>
-      <c r="D10" s="37"/>
+      <c r="D10" s="44"/>
     </row>
     <row r="11" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="15" t="s">
         <v>15</v>
       </c>
       <c r="B11" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="C11" s="38" t="s">
         <v>21</v>
       </c>
-      <c r="D11" s="39"/>
+      <c r="C11" s="45" t="s">
+        <v>20</v>
+      </c>
+      <c r="D11" s="46"/>
     </row>
     <row r="12" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="42" t="s">
+      <c r="A12" s="16" t="s">
+        <v>30</v>
+      </c>
+      <c r="B12" s="17" t="s">
         <v>31</v>
       </c>
-      <c r="B12" s="43" t="s">
-        <v>32</v>
-      </c>
-      <c r="C12" s="44" t="s">
-        <v>51</v>
-      </c>
-      <c r="D12" s="45"/>
+      <c r="C12" s="19" t="s">
+        <v>50</v>
+      </c>
+      <c r="D12" s="20"/>
     </row>
     <row r="13" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B13" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="C13" s="18" t="s">
         <v>41</v>
       </c>
-      <c r="C13" s="46" t="s">
-        <v>42</v>
-      </c>
-      <c r="D13" s="46"/>
+      <c r="D13" s="18"/>
     </row>
     <row r="14" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B14" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="C14" s="46" t="s">
-        <v>43</v>
-      </c>
-      <c r="D14" s="46"/>
+      <c r="C14" s="18" t="s">
+        <v>42</v>
+      </c>
+      <c r="D14" s="18"/>
     </row>
     <row r="15" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B15" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="C15" s="46" t="s">
-        <v>44</v>
-      </c>
-      <c r="D15" s="46"/>
+      <c r="C15" s="18" t="s">
+        <v>43</v>
+      </c>
+      <c r="D15" s="18"/>
     </row>
     <row r="16" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B16" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="C16" s="46" t="s">
-        <v>45</v>
-      </c>
-      <c r="D16" s="46"/>
+      <c r="C16" s="18" t="s">
+        <v>44</v>
+      </c>
+      <c r="D16" s="18"/>
     </row>
     <row r="17" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B17" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="C17" s="46" t="s">
-        <v>46</v>
-      </c>
-      <c r="D17" s="46"/>
+      <c r="C17" s="18" t="s">
+        <v>45</v>
+      </c>
+      <c r="D17" s="18"/>
     </row>
     <row r="18" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B18" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="C18" s="46" t="s">
-        <v>47</v>
-      </c>
-      <c r="D18" s="46"/>
+      <c r="C18" s="18" t="s">
+        <v>46</v>
+      </c>
+      <c r="D18" s="18"/>
     </row>
     <row r="19" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B19" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="C19" s="46" t="s">
-        <v>48</v>
-      </c>
-      <c r="D19" s="46"/>
+      <c r="C19" s="18" t="s">
+        <v>47</v>
+      </c>
+      <c r="D19" s="18"/>
     </row>
     <row r="20" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="42" t="s">
-        <v>40</v>
-      </c>
-      <c r="B20" s="43" t="s">
-        <v>32</v>
-      </c>
-      <c r="C20" s="44" t="s">
-        <v>52</v>
-      </c>
-      <c r="D20" s="45"/>
+      <c r="A20" s="16" t="s">
+        <v>39</v>
+      </c>
+      <c r="B20" s="17" t="s">
+        <v>31</v>
+      </c>
+      <c r="C20" s="19" t="s">
+        <v>51</v>
+      </c>
+      <c r="D20" s="20"/>
     </row>
     <row r="21" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="C21" s="46" t="s">
-        <v>49</v>
-      </c>
-      <c r="D21" s="46"/>
+        <v>40</v>
+      </c>
+      <c r="C21" s="18" t="s">
+        <v>48</v>
+      </c>
+      <c r="D21" s="18"/>
     </row>
     <row r="22" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B22" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="C22" s="46" t="s">
-        <v>50</v>
-      </c>
-      <c r="D22" s="46"/>
+      <c r="C22" s="18" t="s">
+        <v>49</v>
+      </c>
+      <c r="D22" s="18"/>
     </row>
     <row r="23" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B23" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="C23" s="46" t="s">
-        <v>44</v>
-      </c>
-      <c r="D23" s="46"/>
+      <c r="C23" s="18" t="s">
+        <v>43</v>
+      </c>
+      <c r="D23" s="18"/>
     </row>
     <row r="24" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B24" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="C24" s="46" t="s">
-        <v>45</v>
-      </c>
-      <c r="D24" s="46"/>
+      <c r="C24" s="18" t="s">
+        <v>44</v>
+      </c>
+      <c r="D24" s="18"/>
     </row>
     <row r="25" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B25" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="C25" s="46" t="s">
-        <v>46</v>
-      </c>
-      <c r="D25" s="46"/>
+      <c r="C25" s="18" t="s">
+        <v>45</v>
+      </c>
+      <c r="D25" s="18"/>
     </row>
     <row r="26" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B26" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="C26" s="46" t="s">
-        <v>47</v>
-      </c>
-      <c r="D26" s="46"/>
+      <c r="C26" s="18" t="s">
+        <v>46</v>
+      </c>
+      <c r="D26" s="18"/>
     </row>
     <row r="27" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B27" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="C27" s="46" t="s">
-        <v>48</v>
-      </c>
-      <c r="D27" s="46"/>
+      <c r="C27" s="18" t="s">
+        <v>47</v>
+      </c>
+      <c r="D27" s="18"/>
     </row>
     <row r="28" spans="1:4" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="16" t="s">
+      <c r="A28" s="21" t="s">
         <v>12</v>
       </c>
-      <c r="B28" s="17"/>
-      <c r="C28" s="16" t="s">
+      <c r="B28" s="22"/>
+      <c r="C28" s="21" t="s">
         <v>11</v>
       </c>
-      <c r="D28" s="17"/>
+      <c r="D28" s="22"/>
     </row>
     <row r="29" spans="1:4" ht="399.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="40" t="s">
-        <v>30</v>
-      </c>
-      <c r="B29" s="41"/>
-      <c r="C29" s="18" t="s">
+      <c r="A29" s="23" t="s">
         <v>29</v>
       </c>
-      <c r="D29" s="19"/>
+      <c r="B29" s="24"/>
+      <c r="C29" s="25" t="s">
+        <v>28</v>
+      </c>
+      <c r="D29" s="26"/>
     </row>
   </sheetData>
   <mergeCells count="29">
-    <mergeCell ref="C27:D27"/>
-    <mergeCell ref="C21:D21"/>
-    <mergeCell ref="C22:D22"/>
-    <mergeCell ref="C20:D20"/>
-    <mergeCell ref="C24:D24"/>
-    <mergeCell ref="C23:D23"/>
-    <mergeCell ref="C25:D25"/>
-    <mergeCell ref="C26:D26"/>
-    <mergeCell ref="C15:D15"/>
-    <mergeCell ref="C16:D16"/>
-    <mergeCell ref="C17:D17"/>
-    <mergeCell ref="C18:D18"/>
-    <mergeCell ref="C19:D19"/>
     <mergeCell ref="A28:B28"/>
     <mergeCell ref="C28:D28"/>
     <mergeCell ref="A29:B29"/>
@@ -1536,6 +1523,19 @@
     <mergeCell ref="C11:D11"/>
     <mergeCell ref="C13:D13"/>
     <mergeCell ref="C14:D14"/>
+    <mergeCell ref="C15:D15"/>
+    <mergeCell ref="C16:D16"/>
+    <mergeCell ref="C17:D17"/>
+    <mergeCell ref="C18:D18"/>
+    <mergeCell ref="C19:D19"/>
+    <mergeCell ref="C27:D27"/>
+    <mergeCell ref="C21:D21"/>
+    <mergeCell ref="C22:D22"/>
+    <mergeCell ref="C20:D20"/>
+    <mergeCell ref="C24:D24"/>
+    <mergeCell ref="C23:D23"/>
+    <mergeCell ref="C25:D25"/>
+    <mergeCell ref="C26:D26"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="C4" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
